--- a/natmiOut/OldD2/LR-pairs_lrc2p/Jag1-Notch1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Jag1-Notch1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.23761554217</v>
+        <v>15.2630565</v>
       </c>
       <c r="H2">
-        <v>15.23761554217</v>
+        <v>30.526113</v>
       </c>
       <c r="I2">
-        <v>0.2478663190620499</v>
+        <v>0.233863797955522</v>
       </c>
       <c r="J2">
-        <v>0.2478663190620499</v>
+        <v>0.1906936114921842</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N2">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O2">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P2">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q2">
-        <v>1021.696316687731</v>
+        <v>1023.744727533744</v>
       </c>
       <c r="R2">
-        <v>1021.696316687731</v>
+        <v>4094.978910134976</v>
       </c>
       <c r="S2">
-        <v>0.09956261996928645</v>
+        <v>0.09088304081459553</v>
       </c>
       <c r="T2">
-        <v>0.09956261996928645</v>
+        <v>0.06105965530847942</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.23761554217</v>
+        <v>15.2630565</v>
       </c>
       <c r="H3">
-        <v>15.23761554217</v>
+        <v>30.526113</v>
       </c>
       <c r="I3">
-        <v>0.2478663190620499</v>
+        <v>0.233863797955522</v>
       </c>
       <c r="J3">
-        <v>0.2478663190620499</v>
+        <v>0.1906936114921842</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N3">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O3">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P3">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q3">
-        <v>61.04940349271451</v>
+        <v>64.394998179436</v>
       </c>
       <c r="R3">
-        <v>61.04940349271451</v>
+        <v>386.369989076616</v>
       </c>
       <c r="S3">
-        <v>0.005949163621341019</v>
+        <v>0.0057166724188131</v>
       </c>
       <c r="T3">
-        <v>0.005949163621341019</v>
+        <v>0.005761108633837023</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.23761554217</v>
+        <v>15.2630565</v>
       </c>
       <c r="H4">
-        <v>15.23761554217</v>
+        <v>30.526113</v>
       </c>
       <c r="I4">
-        <v>0.2478663190620499</v>
+        <v>0.233863797955522</v>
       </c>
       <c r="J4">
-        <v>0.2478663190620499</v>
+        <v>0.1906936114921842</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N4">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O4">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P4">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q4">
-        <v>189.7111180795014</v>
+        <v>191.54962926193</v>
       </c>
       <c r="R4">
-        <v>189.7111180795014</v>
+        <v>1149.29777557158</v>
       </c>
       <c r="S4">
-        <v>0.01848703537909568</v>
+        <v>0.01700483754008766</v>
       </c>
       <c r="T4">
-        <v>0.01848703537909568</v>
+        <v>0.01713701769001045</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.23761554217</v>
+        <v>15.2630565</v>
       </c>
       <c r="H5">
-        <v>15.23761554217</v>
+        <v>30.526113</v>
       </c>
       <c r="I5">
-        <v>0.2478663190620499</v>
+        <v>0.233863797955522</v>
       </c>
       <c r="J5">
-        <v>0.2478663190620499</v>
+        <v>0.1906936114921842</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N5">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O5">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P5">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q5">
-        <v>185.1976210914784</v>
+        <v>186.003075231314</v>
       </c>
       <c r="R5">
-        <v>185.1976210914784</v>
+        <v>1116.018451387884</v>
       </c>
       <c r="S5">
-        <v>0.01804720254617728</v>
+        <v>0.01651244164999189</v>
       </c>
       <c r="T5">
-        <v>0.01804720254617728</v>
+        <v>0.01664079436184473</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.23761554217</v>
+        <v>15.2630565</v>
       </c>
       <c r="H6">
-        <v>15.23761554217</v>
+        <v>30.526113</v>
       </c>
       <c r="I6">
-        <v>0.2478663190620499</v>
+        <v>0.233863797955522</v>
       </c>
       <c r="J6">
-        <v>0.2478663190620499</v>
+        <v>0.1906936114921842</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N6">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O6">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P6">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q6">
-        <v>648.9291552947961</v>
+        <v>683.8263144338572</v>
       </c>
       <c r="R6">
-        <v>648.9291552947961</v>
+        <v>4102.957886603142</v>
       </c>
       <c r="S6">
-        <v>0.06323707526426645</v>
+        <v>0.0607067496157026</v>
       </c>
       <c r="T6">
-        <v>0.06323707526426645</v>
+        <v>0.06117862870579165</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.23761554217</v>
+        <v>15.2630565</v>
       </c>
       <c r="H7">
-        <v>15.23761554217</v>
+        <v>30.526113</v>
       </c>
       <c r="I7">
-        <v>0.2478663190620499</v>
+        <v>0.233863797955522</v>
       </c>
       <c r="J7">
-        <v>0.2478663190620499</v>
+        <v>0.1906936114921842</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N7">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O7">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P7">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q7">
-        <v>436.9824877199504</v>
+        <v>484.8212595239813</v>
       </c>
       <c r="R7">
-        <v>436.9824877199504</v>
+        <v>1939.285038095925</v>
       </c>
       <c r="S7">
-        <v>0.04258322228188301</v>
+        <v>0.04304005591633121</v>
       </c>
       <c r="T7">
-        <v>0.04258322228188301</v>
+        <v>0.02891640679222095</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.47650306839706</v>
+        <v>6.993139999999999</v>
       </c>
       <c r="H8">
-        <v>6.47650306839706</v>
+        <v>20.97942</v>
       </c>
       <c r="I8">
-        <v>0.105351586769923</v>
+        <v>0.1071503784340102</v>
       </c>
       <c r="J8">
-        <v>0.105351586769923</v>
+        <v>0.1310563636716983</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N8">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O8">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P8">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q8">
-        <v>434.2555639158573</v>
+        <v>469.05350864064</v>
       </c>
       <c r="R8">
-        <v>434.2555639158573</v>
+        <v>2814.32105184384</v>
       </c>
       <c r="S8">
-        <v>0.04231748805738048</v>
+        <v>0.04164027225098593</v>
       </c>
       <c r="T8">
-        <v>0.04231748805738048</v>
+        <v>0.04196394587715177</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.47650306839706</v>
+        <v>6.993139999999999</v>
       </c>
       <c r="H9">
-        <v>6.47650306839706</v>
+        <v>20.97942</v>
       </c>
       <c r="I9">
-        <v>0.105351586769923</v>
+        <v>0.1071503784340102</v>
       </c>
       <c r="J9">
-        <v>0.105351586769923</v>
+        <v>0.1310563636716983</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N9">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O9">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P9">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q9">
-        <v>25.94806568981517</v>
+        <v>29.50413225349333</v>
       </c>
       <c r="R9">
-        <v>25.94806568981517</v>
+        <v>265.53719028144</v>
       </c>
       <c r="S9">
-        <v>0.002528596179722502</v>
+        <v>0.002619232298517576</v>
       </c>
       <c r="T9">
-        <v>0.002528596179722502</v>
+        <v>0.003959387744351634</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.47650306839706</v>
+        <v>6.993139999999999</v>
       </c>
       <c r="H10">
-        <v>6.47650306839706</v>
+        <v>20.97942</v>
       </c>
       <c r="I10">
-        <v>0.105351586769923</v>
+        <v>0.1071503784340102</v>
       </c>
       <c r="J10">
-        <v>0.105351586769923</v>
+        <v>0.1310563636716983</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N10">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O10">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P10">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q10">
-        <v>80.63365524288277</v>
+        <v>87.76311444413332</v>
       </c>
       <c r="R10">
-        <v>80.63365524288277</v>
+        <v>789.8680299971999</v>
       </c>
       <c r="S10">
-        <v>0.007857616634762997</v>
+        <v>0.007791179282805419</v>
       </c>
       <c r="T10">
-        <v>0.007857616634762997</v>
+        <v>0.01177761124274679</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.47650306839706</v>
+        <v>6.993139999999999</v>
       </c>
       <c r="H11">
-        <v>6.47650306839706</v>
+        <v>20.97942</v>
       </c>
       <c r="I11">
-        <v>0.105351586769923</v>
+        <v>0.1071503784340102</v>
       </c>
       <c r="J11">
-        <v>0.105351586769923</v>
+        <v>0.1310563636716983</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N11">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O11">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P11">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q11">
-        <v>78.71526604273306</v>
+        <v>85.22182601650665</v>
       </c>
       <c r="R11">
-        <v>78.71526604273306</v>
+        <v>766.9964341485598</v>
       </c>
       <c r="S11">
-        <v>0.007670672773100759</v>
+        <v>0.007565576147885205</v>
       </c>
       <c r="T11">
-        <v>0.007670672773100759</v>
+        <v>0.0114365760898144</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.47650306839706</v>
+        <v>6.993139999999999</v>
       </c>
       <c r="H12">
-        <v>6.47650306839706</v>
+        <v>20.97942</v>
       </c>
       <c r="I12">
-        <v>0.105351586769923</v>
+        <v>0.1071503784340102</v>
       </c>
       <c r="J12">
-        <v>0.105351586769923</v>
+        <v>0.1310563636716983</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N12">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O12">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P12">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q12">
-        <v>275.81688577244</v>
+        <v>313.3116327335867</v>
       </c>
       <c r="R12">
-        <v>275.81688577244</v>
+        <v>2819.80469460228</v>
       </c>
       <c r="S12">
-        <v>0.02687790034156173</v>
+        <v>0.02781427160461303</v>
       </c>
       <c r="T12">
-        <v>0.02687790034156173</v>
+        <v>0.04204571170403711</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.47650306839706</v>
+        <v>6.993139999999999</v>
       </c>
       <c r="H13">
-        <v>6.47650306839706</v>
+        <v>20.97942</v>
       </c>
       <c r="I13">
-        <v>0.105351586769923</v>
+        <v>0.1071503784340102</v>
       </c>
       <c r="J13">
-        <v>0.105351586769923</v>
+        <v>0.1310563636716983</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N13">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O13">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P13">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q13">
-        <v>185.7323683434396</v>
+        <v>222.13263397325</v>
       </c>
       <c r="R13">
-        <v>185.7323683434396</v>
+        <v>1332.7958038395</v>
       </c>
       <c r="S13">
-        <v>0.01809931278339458</v>
+        <v>0.019719846849203</v>
       </c>
       <c r="T13">
-        <v>0.01809931278339458</v>
+        <v>0.01987313101359665</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.35154521840063</v>
+        <v>8.024555666666666</v>
       </c>
       <c r="H14">
-        <v>5.35154521840063</v>
+        <v>24.073667</v>
       </c>
       <c r="I14">
-        <v>0.08705219073864195</v>
+        <v>0.122953948647977</v>
       </c>
       <c r="J14">
-        <v>0.08705219073864195</v>
+        <v>0.1503858189246111</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N14">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O14">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P14">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q14">
-        <v>358.8260921202577</v>
+        <v>538.2340394632639</v>
       </c>
       <c r="R14">
-        <v>358.8260921202577</v>
+        <v>3229.404236779584</v>
       </c>
       <c r="S14">
-        <v>0.03496701051116004</v>
+        <v>0.04778178080993543</v>
       </c>
       <c r="T14">
-        <v>0.03496701051116004</v>
+        <v>0.04815319294110965</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.35154521840063</v>
+        <v>8.024555666666666</v>
       </c>
       <c r="H15">
-        <v>5.35154521840063</v>
+        <v>24.073667</v>
       </c>
       <c r="I15">
-        <v>0.08705219073864195</v>
+        <v>0.122953948647977</v>
       </c>
       <c r="J15">
-        <v>0.08705219073864195</v>
+        <v>0.1503858189246111</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N15">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O15">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P15">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q15">
-        <v>21.44092968112255</v>
+        <v>33.85568595292711</v>
       </c>
       <c r="R15">
-        <v>21.44092968112255</v>
+        <v>304.701173576344</v>
       </c>
       <c r="S15">
-        <v>0.002089383213742414</v>
+        <v>0.003005541914416925</v>
       </c>
       <c r="T15">
-        <v>0.002089383213742414</v>
+        <v>0.004543356397908158</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.35154521840063</v>
+        <v>8.024555666666666</v>
       </c>
       <c r="H16">
-        <v>5.35154521840063</v>
+        <v>24.073667</v>
       </c>
       <c r="I16">
-        <v>0.08705219073864195</v>
+        <v>0.122953948647977</v>
       </c>
       <c r="J16">
-        <v>0.08705219073864195</v>
+        <v>0.1503858189246111</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N16">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O16">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P16">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q16">
-        <v>66.62772295482205</v>
+        <v>100.7072641670244</v>
       </c>
       <c r="R16">
-        <v>66.62772295482205</v>
+        <v>906.36537750322</v>
       </c>
       <c r="S16">
-        <v>0.00649276164709649</v>
+        <v>0.008940297472072941</v>
       </c>
       <c r="T16">
-        <v>0.00649276164709649</v>
+        <v>0.01351468682705921</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.35154521840063</v>
+        <v>8.024555666666666</v>
       </c>
       <c r="H17">
-        <v>5.35154521840063</v>
+        <v>24.073667</v>
       </c>
       <c r="I17">
-        <v>0.08705219073864195</v>
+        <v>0.122953948647977</v>
       </c>
       <c r="J17">
-        <v>0.08705219073864195</v>
+        <v>0.1503858189246111</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N17">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O17">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P17">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q17">
-        <v>65.04255477954725</v>
+        <v>97.79116203657287</v>
       </c>
       <c r="R17">
-        <v>65.04255477954725</v>
+        <v>880.1204583291559</v>
       </c>
       <c r="S17">
-        <v>0.006338289624398057</v>
+        <v>0.008681420213110334</v>
       </c>
       <c r="T17">
-        <v>0.006338289624398057</v>
+        <v>0.0131233525238712</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.35154521840063</v>
+        <v>8.024555666666666</v>
       </c>
       <c r="H18">
-        <v>5.35154521840063</v>
+        <v>24.073667</v>
       </c>
       <c r="I18">
-        <v>0.08705219073864195</v>
+        <v>0.122953948647977</v>
       </c>
       <c r="J18">
-        <v>0.08705219073864195</v>
+        <v>0.1503858189246111</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N18">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O18">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P18">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q18">
-        <v>227.9079498027594</v>
+        <v>359.5218511119309</v>
       </c>
       <c r="R18">
-        <v>227.9079498027594</v>
+        <v>3235.696660007378</v>
       </c>
       <c r="S18">
-        <v>0.02220925359480042</v>
+        <v>0.0319165883736066</v>
       </c>
       <c r="T18">
-        <v>0.02220925359480042</v>
+        <v>0.04824701837996436</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.35154521840063</v>
+        <v>8.024555666666666</v>
       </c>
       <c r="H19">
-        <v>5.35154521840063</v>
+        <v>24.073667</v>
       </c>
       <c r="I19">
-        <v>0.08705219073864195</v>
+        <v>0.122953948647977</v>
       </c>
       <c r="J19">
-        <v>0.08705219073864195</v>
+        <v>0.1503858189246111</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N19">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O19">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P19">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q19">
-        <v>153.4709637613997</v>
+        <v>254.8948950974292</v>
       </c>
       <c r="R19">
-        <v>153.4709637613997</v>
+        <v>1529.369370584575</v>
       </c>
       <c r="S19">
-        <v>0.01495549214744453</v>
+        <v>0.02262831986483479</v>
       </c>
       <c r="T19">
-        <v>0.01495549214744453</v>
+        <v>0.02280421185469848</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.97571576169983</v>
+        <v>2.074084</v>
       </c>
       <c r="H20">
-        <v>1.97571576169983</v>
+        <v>6.222252</v>
       </c>
       <c r="I20">
-        <v>0.0321384531595598</v>
+        <v>0.03177955617990281</v>
       </c>
       <c r="J20">
-        <v>0.0321384531595598</v>
+        <v>0.03886979339604968</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N20">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O20">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P20">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q20">
-        <v>132.4735822979783</v>
+        <v>139.115815987584</v>
       </c>
       <c r="R20">
-        <v>132.4735822979783</v>
+        <v>834.6948959255039</v>
       </c>
       <c r="S20">
-        <v>0.01290933197553534</v>
+        <v>0.01235002051030208</v>
       </c>
       <c r="T20">
-        <v>0.01290933197553534</v>
+        <v>0.01244601834378641</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.97571576169983</v>
+        <v>2.074084</v>
       </c>
       <c r="H21">
-        <v>1.97571576169983</v>
+        <v>6.222252</v>
       </c>
       <c r="I21">
-        <v>0.0321384531595598</v>
+        <v>0.03177955617990281</v>
       </c>
       <c r="J21">
-        <v>0.0321384531595598</v>
+        <v>0.03886979339604968</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N21">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O21">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P21">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q21">
-        <v>7.915691821277679</v>
+        <v>8.750582519562666</v>
       </c>
       <c r="R21">
-        <v>7.915691821277679</v>
+        <v>78.755242676064</v>
       </c>
       <c r="S21">
-        <v>0.0007713711048218779</v>
+        <v>0.0007768338403976653</v>
       </c>
       <c r="T21">
-        <v>0.0007713711048218779</v>
+        <v>0.001174308360815859</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.97571576169983</v>
+        <v>2.074084</v>
       </c>
       <c r="H22">
-        <v>1.97571576169983</v>
+        <v>6.222252</v>
       </c>
       <c r="I22">
-        <v>0.0321384531595598</v>
+        <v>0.03177955617990281</v>
       </c>
       <c r="J22">
-        <v>0.0321384531595598</v>
+        <v>0.03886979339604968</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N22">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O22">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P22">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q22">
-        <v>24.59802487614088</v>
+        <v>26.02951913714666</v>
       </c>
       <c r="R22">
-        <v>24.59802487614088</v>
+        <v>234.26567223432</v>
       </c>
       <c r="S22">
-        <v>0.00239703693038446</v>
+        <v>0.002310773170792834</v>
       </c>
       <c r="T22">
-        <v>0.00239703693038446</v>
+        <v>0.003493102531452429</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.97571576169983</v>
+        <v>2.074084</v>
       </c>
       <c r="H23">
-        <v>1.97571576169983</v>
+        <v>6.222252</v>
       </c>
       <c r="I23">
-        <v>0.0321384531595598</v>
+        <v>0.03177955617990281</v>
       </c>
       <c r="J23">
-        <v>0.0321384531595598</v>
+        <v>0.03886979339604968</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N23">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O23">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P23">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q23">
-        <v>24.0128029222897</v>
+        <v>25.27580254243733</v>
       </c>
       <c r="R23">
-        <v>24.0128029222897</v>
+        <v>227.482222881936</v>
       </c>
       <c r="S23">
-        <v>0.002340008016765721</v>
+        <v>0.002243861904539354</v>
       </c>
       <c r="T23">
-        <v>0.002340008016765721</v>
+        <v>0.003391955471028267</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.97571576169983</v>
+        <v>2.074084</v>
       </c>
       <c r="H24">
-        <v>1.97571576169983</v>
+        <v>6.222252</v>
       </c>
       <c r="I24">
-        <v>0.0321384531595598</v>
+        <v>0.03177955617990281</v>
       </c>
       <c r="J24">
-        <v>0.0321384531595598</v>
+        <v>0.03886979339604968</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N24">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O24">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P24">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q24">
-        <v>84.14043239208152</v>
+        <v>92.92458673308535</v>
       </c>
       <c r="R24">
-        <v>84.14043239208152</v>
+        <v>836.3212805977681</v>
       </c>
       <c r="S24">
-        <v>0.008199346280764417</v>
+        <v>0.008249389502681517</v>
       </c>
       <c r="T24">
-        <v>0.008199346280764417</v>
+        <v>0.01247026913717673</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.97571576169983</v>
+        <v>2.074084</v>
       </c>
       <c r="H25">
-        <v>1.97571576169983</v>
+        <v>6.222252</v>
       </c>
       <c r="I25">
-        <v>0.0321384531595598</v>
+        <v>0.03177955617990281</v>
       </c>
       <c r="J25">
-        <v>0.0321384531595598</v>
+        <v>0.03886979339604968</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N25">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O25">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P25">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q25">
-        <v>56.65933663871386</v>
+        <v>65.88195603145</v>
       </c>
       <c r="R25">
-        <v>56.65933663871386</v>
+        <v>395.2917361887</v>
       </c>
       <c r="S25">
-        <v>0.005521358851287983</v>
+        <v>0.005848677251189359</v>
       </c>
       <c r="T25">
-        <v>0.005521358851287983</v>
+        <v>0.005894139551789983</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>12.0551823584393</v>
+        <v>12.458139</v>
       </c>
       <c r="H26">
-        <v>12.0551823584393</v>
+        <v>37.374417</v>
       </c>
       <c r="I26">
-        <v>0.1960985082304142</v>
+        <v>0.190886255449412</v>
       </c>
       <c r="J26">
-        <v>0.1960985082304142</v>
+        <v>0.233474289869296</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N26">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O26">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P26">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q26">
-        <v>808.311207126198</v>
+        <v>835.6094414072641</v>
       </c>
       <c r="R26">
-        <v>808.311207126198</v>
+        <v>5013.656648443583</v>
       </c>
       <c r="S26">
-        <v>0.07876859318914214</v>
+        <v>0.07418131192863658</v>
       </c>
       <c r="T26">
-        <v>0.07876859318914214</v>
+        <v>0.07475793001799388</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>12.0551823584393</v>
+        <v>12.458139</v>
       </c>
       <c r="H27">
-        <v>12.0551823584393</v>
+        <v>37.374417</v>
       </c>
       <c r="I27">
-        <v>0.1960985082304142</v>
+        <v>0.190886255449412</v>
       </c>
       <c r="J27">
-        <v>0.1960985082304142</v>
+        <v>0.233474289869296</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N27">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O27">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P27">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q27">
-        <v>48.29900649099891</v>
+        <v>52.56102132781601</v>
       </c>
       <c r="R27">
-        <v>48.29900649099891</v>
+        <v>473.049191950344</v>
       </c>
       <c r="S27">
-        <v>0.004706658475335549</v>
+        <v>0.004666109937484658</v>
       </c>
       <c r="T27">
-        <v>0.004706658475335549</v>
+        <v>0.007053570052083774</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>12.0551823584393</v>
+        <v>12.458139</v>
       </c>
       <c r="H28">
-        <v>12.0551823584393</v>
+        <v>37.374417</v>
       </c>
       <c r="I28">
-        <v>0.1960985082304142</v>
+        <v>0.190886255449412</v>
       </c>
       <c r="J28">
-        <v>0.1960985082304142</v>
+        <v>0.233474289869296</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N28">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O28">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P28">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q28">
-        <v>150.0892391951049</v>
+        <v>156.34823252758</v>
       </c>
       <c r="R28">
-        <v>150.0892391951049</v>
+        <v>1407.13409274822</v>
       </c>
       <c r="S28">
-        <v>0.01462594866927448</v>
+        <v>0.01387983001614586</v>
       </c>
       <c r="T28">
-        <v>0.01462594866927448</v>
+        <v>0.02098157879723591</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>12.0551823584393</v>
+        <v>12.458139</v>
       </c>
       <c r="H29">
-        <v>12.0551823584393</v>
+        <v>37.374417</v>
       </c>
       <c r="I29">
-        <v>0.1960985082304142</v>
+        <v>0.190886255449412</v>
       </c>
       <c r="J29">
-        <v>0.1960985082304142</v>
+        <v>0.233474289869296</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N29">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O29">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P29">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q29">
-        <v>146.518402989512</v>
+        <v>151.820978036684</v>
       </c>
       <c r="R29">
-        <v>146.518402989512</v>
+        <v>1366.388802330156</v>
       </c>
       <c r="S29">
-        <v>0.01427797657394327</v>
+        <v>0.01347792254487089</v>
       </c>
       <c r="T29">
-        <v>0.01427797657394327</v>
+        <v>0.02037403149529171</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>12.0551823584393</v>
+        <v>12.458139</v>
       </c>
       <c r="H30">
-        <v>12.0551823584393</v>
+        <v>37.374417</v>
       </c>
       <c r="I30">
-        <v>0.1960985082304142</v>
+        <v>0.190886255449412</v>
       </c>
       <c r="J30">
-        <v>0.1960985082304142</v>
+        <v>0.233474289869296</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N30">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O30">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P30">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q30">
-        <v>513.397866164608</v>
+        <v>558.1584053675422</v>
       </c>
       <c r="R30">
-        <v>513.397866164608</v>
+        <v>5023.425648307879</v>
       </c>
       <c r="S30">
-        <v>0.05002977480402544</v>
+        <v>0.04955056839045439</v>
       </c>
       <c r="T30">
-        <v>0.05002977480402544</v>
+        <v>0.07490359420272169</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>12.0551823584393</v>
+        <v>12.458139</v>
       </c>
       <c r="H31">
-        <v>12.0551823584393</v>
+        <v>37.374417</v>
       </c>
       <c r="I31">
-        <v>0.1960985082304142</v>
+        <v>0.190886255449412</v>
       </c>
       <c r="J31">
-        <v>0.1960985082304142</v>
+        <v>0.233474289869296</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N31">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O31">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P31">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q31">
-        <v>345.7170554231124</v>
+        <v>395.7248432713876</v>
       </c>
       <c r="R31">
-        <v>345.7170554231124</v>
+        <v>2374.349059628325</v>
       </c>
       <c r="S31">
-        <v>0.03368955651869329</v>
+        <v>0.03513051263181961</v>
       </c>
       <c r="T31">
-        <v>0.03368955651869329</v>
+        <v>0.03540358530396903</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>20.3785735183928</v>
+        <v>20.45175</v>
       </c>
       <c r="H32">
-        <v>20.3785735183928</v>
+        <v>40.9035</v>
       </c>
       <c r="I32">
-        <v>0.3314929420394111</v>
+        <v>0.3133660633331761</v>
       </c>
       <c r="J32">
-        <v>0.3314929420394111</v>
+        <v>0.2555201226461606</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N32">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O32">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P32">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q32">
-        <v>1366.402338047634</v>
+        <v>1371.767917608</v>
       </c>
       <c r="R32">
-        <v>1366.402338047634</v>
+        <v>5487.071670432</v>
       </c>
       <c r="S32">
-        <v>0.1331536528870162</v>
+        <v>0.1217788344018712</v>
       </c>
       <c r="T32">
-        <v>0.1331536528870162</v>
+        <v>0.0818169549103873</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>20.3785735183928</v>
+        <v>20.45175</v>
       </c>
       <c r="H33">
-        <v>20.3785735183928</v>
+        <v>40.9035</v>
       </c>
       <c r="I33">
-        <v>0.3314929420394111</v>
+        <v>0.3133660633331761</v>
       </c>
       <c r="J33">
-        <v>0.3314929420394111</v>
+        <v>0.2555201226461606</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N33">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O33">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P33">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q33">
-        <v>81.64661681398057</v>
+        <v>86.286151402</v>
       </c>
       <c r="R33">
-        <v>81.64661681398057</v>
+        <v>517.7169084120001</v>
       </c>
       <c r="S33">
-        <v>0.00795632806818938</v>
+        <v>0.007660061740678271</v>
       </c>
       <c r="T33">
-        <v>0.00795632806818938</v>
+        <v>0.007719604097781878</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>20.3785735183928</v>
+        <v>20.45175</v>
       </c>
       <c r="H34">
-        <v>20.3785735183928</v>
+        <v>40.9035</v>
       </c>
       <c r="I34">
-        <v>0.3314929420394111</v>
+        <v>0.3133660633331761</v>
       </c>
       <c r="J34">
-        <v>0.3314929420394111</v>
+        <v>0.2555201226461606</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N34">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O34">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P34">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q34">
-        <v>253.7169911092961</v>
+        <v>256.667144635</v>
       </c>
       <c r="R34">
-        <v>253.7169911092961</v>
+        <v>1540.00286781</v>
       </c>
       <c r="S34">
-        <v>0.02472430207780254</v>
+        <v>0.02278565149519611</v>
       </c>
       <c r="T34">
-        <v>0.02472430207780254</v>
+        <v>0.0229627664381424</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>20.3785735183928</v>
+        <v>20.45175</v>
       </c>
       <c r="H35">
-        <v>20.3785735183928</v>
+        <v>40.9035</v>
       </c>
       <c r="I35">
-        <v>0.3314929420394111</v>
+        <v>0.3133660633331761</v>
       </c>
       <c r="J35">
-        <v>0.3314929420394111</v>
+        <v>0.2555201226461606</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N35">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O35">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P35">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q35">
-        <v>247.6807034801114</v>
+        <v>249.235033223</v>
       </c>
       <c r="R35">
-        <v>247.6807034801114</v>
+        <v>1495.410199338</v>
       </c>
       <c r="S35">
-        <v>0.02413607580994422</v>
+        <v>0.02212586505954568</v>
       </c>
       <c r="T35">
-        <v>0.02413607580994422</v>
+        <v>0.02229785142247609</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>20.3785735183928</v>
+        <v>20.45175</v>
       </c>
       <c r="H36">
-        <v>20.3785735183928</v>
+        <v>40.9035</v>
       </c>
       <c r="I36">
-        <v>0.3314929420394111</v>
+        <v>0.3133660633331761</v>
       </c>
       <c r="J36">
-        <v>0.3314929420394111</v>
+        <v>0.2555201226461606</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N36">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O36">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P36">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q36">
-        <v>867.8687595710442</v>
+        <v>916.2938515115002</v>
       </c>
       <c r="R36">
-        <v>867.8687595710442</v>
+        <v>5497.763109069001</v>
       </c>
       <c r="S36">
-        <v>0.08457237838785046</v>
+        <v>0.08134407852404565</v>
       </c>
       <c r="T36">
-        <v>0.08457237838785046</v>
+        <v>0.08197637345008023</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>20.3785735183928</v>
+        <v>20.45175</v>
       </c>
       <c r="H37">
-        <v>20.3785735183928</v>
+        <v>40.9035</v>
       </c>
       <c r="I37">
-        <v>0.3314929420394111</v>
+        <v>0.3133660633331761</v>
       </c>
       <c r="J37">
-        <v>0.3314929420394111</v>
+        <v>0.2555201226461606</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N37">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O37">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P37">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q37">
-        <v>584.4142561286205</v>
+        <v>649.636800759375</v>
       </c>
       <c r="R37">
-        <v>584.4142561286205</v>
+        <v>2598.5472030375</v>
       </c>
       <c r="S37">
-        <v>0.05695020480860836</v>
+        <v>0.05767157211183924</v>
       </c>
       <c r="T37">
-        <v>0.05695020480860836</v>
+        <v>0.03874657232729269</v>
       </c>
     </row>
   </sheetData>
